--- a/doc/外部設計書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/05_ファイル構成一覧表_持ちつ持たれつ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A08E523-93A9-4383-B34E-6CBA2487E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2750553C-90CD-4A77-A389-C471D2831861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2235" yWindow="375" windowWidth="15645" windowHeight="9540" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>ヘッダーjsp</t>
+  </si>
+  <si>
+    <t>calendar.jsp</t>
+  </si>
+  <si>
+    <t>カレンダー画面jsp</t>
   </si>
 </sst>
 </file>
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -906,10 +912,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1205,21 +1219,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1390,32 +1389,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1432,4 +1421,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>